--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-04.xlsx
@@ -748,7 +748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Yeah. "But" the mercs are having some interteam strife. At least the bunch outside are. The ones below us right now, I'm not too sure.
+    <t xml:space="preserve">[name="Seasoned Rhodes Island Operator"] Yeah. 'But' the mercs are having some interteam strife. At least the bunch outside are. The ones below us right now, I'm not too sure.
 </t>
   </si>
   <si>
@@ -792,7 +792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Panicked Voice"] Maybe they all had a premonition of sorts. They all know, what's going on up there is beyond any "tactical" level of foresight now—
+    <t xml:space="preserve">[name="Panicked Voice"] Maybe they all had a premonition of sorts. They all know, what's going on up there is beyond any 'tactical' level of foresight now—
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-04.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_spst_08-04.xlsx
@@ -904,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] That'd be the leader of Reunion's…
+    <t xml:space="preserve">[name="Steady Rhodes Island Operator"] That'd be the leader of Reunion's...
 </t>
   </si>
   <si>
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Don’t you push it now! They've got a lot of people!
+    <t xml:space="preserve">[name="Panicked Rhodes Island Operator"] Don't you push it now! They've got a lot of people!
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The two battle-hardened Operators hold tight their weapons in mutual rapport, and the Sarkazs’ press on towards them menacingly.
+    <t xml:space="preserve">The two battle-hardened Operators hold tight their weapons in mutual rapport, and the Sarkazs' press on towards them menacingly.
 </t>
   </si>
   <si>
